--- a/一些文件/echo分析/echo.xlsx
+++ b/一些文件/echo分析/echo.xlsx
@@ -1,29 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\FeigeDownload\一些文件\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thana\Desktop\gpp_project\一些文件\echo分析\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C0A382-5C67-40FF-A510-51B1DEFC6484}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4024ACBB-7E92-4B6E-8133-95111A1C68DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5460" yWindow="14250" windowWidth="19065" windowHeight="14085" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="23657" windowHeight="15240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
-    <sheet name="工作计划" sheetId="4" r:id="rId3"/>
-    <sheet name="echo细节" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="77">
   <si>
     <t>中转服务器</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -255,23 +254,92 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>设计</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>云原生</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>项目</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口地址</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>yokai</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>一键安装</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>echo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理CRUD</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/proxy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>主机CRUD</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/host</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>consul-register</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/consul/register</t>
+  </si>
+  <si>
+    <t>监控信息更新</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/monitor</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成订阅链接</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/sublink/&lt;email&gt;</t>
+  </si>
+  <si>
+    <t>用户CRUD</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成配置文件</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/yokai/config/server</t>
+  </si>
+  <si>
+    <t>v2ray-api</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户代理注册，流量查询</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,21 +372,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <sz val="10.5"/>
+      <color rgb="FF6A8759"/>
+      <name val="JetBrains Mono"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -367,11 +447,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -420,30 +511,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -726,22 +838,22 @@
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.15"/>
   <cols>
-    <col min="4" max="4" width="19.25" style="11" customWidth="1"/>
-    <col min="5" max="5" width="48.875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="19.2109375" style="11" customWidth="1"/>
+    <col min="5" max="5" width="48.85546875" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="18"/>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-    </row>
-    <row r="2" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="14" customFormat="1">
+      <c r="A1" s="21"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+    </row>
+    <row r="2" spans="1:7" s="14" customFormat="1">
       <c r="A2" s="12" t="s">
         <v>2</v>
       </c>
@@ -764,14 +876,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="49.5" customHeight="1">
       <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="22" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="8" t="s">
@@ -783,12 +895,12 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="44.25" customHeight="1">
       <c r="A4" s="7">
         <v>2</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="19"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="22"/>
       <c r="D4" s="8" t="s">
         <v>14</v>
       </c>
@@ -798,12 +910,12 @@
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="51.75" customHeight="1">
       <c r="A5" s="7">
         <v>3</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="21" t="s">
+      <c r="B5" s="23"/>
+      <c r="C5" s="24" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="8" t="s">
@@ -815,10 +927,10 @@
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="51.75" customHeight="1">
       <c r="A6" s="7"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="22"/>
+      <c r="C6" s="25"/>
       <c r="D6" s="8" t="s">
         <v>18</v>
       </c>
@@ -828,7 +940,7 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="7">
         <v>4</v>
       </c>
@@ -841,7 +953,7 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="15">
         <v>5</v>
       </c>
@@ -852,27 +964,27 @@
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="B15" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="B16" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="B20" s="2" t="s">
         <v>23</v>
       </c>
@@ -880,12 +992,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="B21" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
         <v>0</v>
       </c>
@@ -893,7 +1005,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
@@ -921,17 +1033,17 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.15"/>
   <cols>
-    <col min="1" max="1" width="11.625" customWidth="1"/>
-    <col min="2" max="2" width="21.125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="21.125" customWidth="1"/>
+    <col min="1" max="1" width="11.640625" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" customWidth="1"/>
     <col min="4" max="4" width="30" style="3" customWidth="1"/>
-    <col min="5" max="5" width="60.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.625" customWidth="1"/>
+    <col min="5" max="5" width="60.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="12" t="s">
         <v>2</v>
       </c>
@@ -947,18 +1059,18 @@
       <c r="E1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="18" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="24.75" customHeight="1">
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="22" t="s">
         <v>33</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -967,42 +1079,42 @@
       <c r="E2" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="25"/>
-    </row>
-    <row r="3" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F2" s="19"/>
+    </row>
+    <row r="3" spans="1:7" ht="59.25" customHeight="1">
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="23"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="26"/>
       <c r="D3" s="6" t="s">
         <v>41</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="25"/>
-    </row>
-    <row r="4" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F3" s="19"/>
+    </row>
+    <row r="4" spans="1:7" ht="24" customHeight="1">
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="23"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="26"/>
       <c r="D4" s="6" t="s">
         <v>34</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="25"/>
-    </row>
-    <row r="5" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F4" s="19"/>
+    </row>
+    <row r="5" spans="1:7" ht="24" customHeight="1">
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19" t="s">
+      <c r="B5" s="22"/>
+      <c r="C5" s="22" t="s">
         <v>31</v>
       </c>
       <c r="D5" s="6" t="s">
@@ -1011,51 +1123,51 @@
       <c r="E5" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="25"/>
-    </row>
-    <row r="6" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F5" s="19"/>
+    </row>
+    <row r="6" spans="1:7" ht="21.75" customHeight="1">
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="23"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="26"/>
       <c r="D6" s="6" t="s">
         <v>35</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="25"/>
-    </row>
-    <row r="7" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F6" s="19"/>
+    </row>
+    <row r="7" spans="1:7" ht="28.5" customHeight="1">
       <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="23"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="26"/>
       <c r="D7" s="6" t="s">
         <v>36</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="25"/>
-    </row>
-    <row r="8" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F7" s="19"/>
+    </row>
+    <row r="8" spans="1:7" ht="26.25" customHeight="1">
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="23"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="26"/>
       <c r="D8" s="6" t="s">
         <v>39</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="25"/>
-    </row>
-    <row r="9" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F8" s="19"/>
+    </row>
+    <row r="9" spans="1:7" ht="25.5" customHeight="1">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -1071,17 +1183,17 @@
       <c r="E9" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="26"/>
+      <c r="F9" s="20"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="24" customHeight="1">
       <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="22" t="s">
         <v>30</v>
       </c>
       <c r="D10" s="6" t="s">
@@ -1090,37 +1202,37 @@
       <c r="E10" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="25"/>
-    </row>
-    <row r="11" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F10" s="19"/>
+    </row>
+    <row r="11" spans="1:7" ht="23.25" customHeight="1">
       <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="23"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="26"/>
       <c r="D11" s="6" t="s">
         <v>37</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="25"/>
-    </row>
-    <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F11" s="19"/>
+    </row>
+    <row r="12" spans="1:7" ht="23.25" customHeight="1">
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="23"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="26"/>
       <c r="D12" s="6" t="s">
         <v>38</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="25"/>
-    </row>
-    <row r="13" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F12" s="19"/>
+    </row>
+    <row r="13" spans="1:7" ht="50.25" customHeight="1">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -1136,11 +1248,11 @@
       <c r="E13" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F13" s="25"/>
-    </row>
-    <row r="14" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:7" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F13" s="19"/>
+    </row>
+    <row r="14" spans="1:7" ht="20.25" customHeight="1"/>
+    <row r="15" spans="1:7" ht="42.75" customHeight="1"/>
+    <row r="16" spans="1:7" s="1" customFormat="1" ht="27.75" customHeight="1">
       <c r="A16"/>
       <c r="B16" s="3"/>
       <c r="C16"/>
@@ -1148,10 +1260,10 @@
       <c r="F16"/>
       <c r="G16"/>
     </row>
-    <row r="17" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="24.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="25.5" customHeight="1"/>
+    <row r="18" ht="24.75" customHeight="1"/>
+    <row r="19" ht="21" customHeight="1"/>
+    <row r="20" ht="21.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B10:B12"/>
@@ -1167,46 +1279,118 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECD14E02-D3CA-4B84-99D9-B402E3F674DF}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E3E26D-2A63-4E25-A030-201EB55ADA46}">
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.15"/>
+  <cols>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="25" customHeight="1">
+      <c r="A1" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="25" customHeight="1">
+      <c r="A2" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="29"/>
+    </row>
+    <row r="3" spans="1:3" ht="25" customHeight="1">
+      <c r="A3" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="25" customHeight="1">
+      <c r="A4" s="32"/>
+      <c r="B4" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="25" customHeight="1">
+      <c r="A5" s="32"/>
+      <c r="B5" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="25" customHeight="1">
+      <c r="A6" s="32"/>
+      <c r="B6" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="25" customHeight="1">
+      <c r="A7" s="32"/>
+      <c r="B7" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="25" customHeight="1">
+      <c r="A8" s="32"/>
+      <c r="B8" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="25" customHeight="1">
+      <c r="A9" s="33"/>
+      <c r="B9" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="25" customHeight="1">
+      <c r="A10" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:A9"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D754A0-E231-4507-BAA1-4475483D65AC}">
-  <dimension ref="A1:A6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>